--- a/target/classes/Data/Login.xlsx
+++ b/target/classes/Data/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\Java\src\JaVaTestAppium\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8F1843-1EEF-4E63-B874-1A4F072AA990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963CD78-7415-4A11-BE5B-0813E48B5803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4236" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{F893E997-8251-44C5-9FC1-92383C03822B}"/>
   </bookViews>
@@ -33,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>user</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>nhuyyy@gmail.com</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>phong@gmail.com</t>
@@ -415,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39D2F2-F80F-494B-8407-2C45F22731E6}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -426,21 +420,13 @@
     <col min="1" max="16384" width="30.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -449,7 +435,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -459,15 +445,15 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>12345678</v>
@@ -475,12 +461,12 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{76059046-6809-4ED4-9CAB-EBF959530B69}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{76059046-6809-4ED4-9CAB-EBF959530B69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/target/classes/Data/Login.xlsx
+++ b/target/classes/Data/Login.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\Java\src\JaVaTestAppium\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B963CD78-7415-4A11-BE5B-0813E48B5803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F4B08-C49D-4981-926F-60759833CC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4236" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{F893E997-8251-44C5-9FC1-92383C03822B}"/>
+    <workbookView xWindow="4236" yWindow="2244" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{F893E997-8251-44C5-9FC1-92383C03822B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>nhuyyy@gmail.com</t>
   </si>
@@ -42,6 +43,12 @@
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>Đá bóng</t>
+  </si>
+  <si>
+    <t>Đá bóng vào cuối tuần</t>
   </si>
 </sst>
 </file>
@@ -411,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39D2F2-F80F-494B-8407-2C45F22731E6}">
   <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -426,7 +433,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -467,8 +474,56 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{76059046-6809-4ED4-9CAB-EBF959530B69}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B741B80F-91BB-4D0A-88BA-0D7CBAEAB6AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35212CDE-5192-44B9-A16C-5A9E21EA79EB}">
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="30.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/classes/Data/Login.xlsx
+++ b/target/classes/Data/Login.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\Java\src\JaVaTestAppium\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6F4B08-C49D-4981-926F-60759833CC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2DC555-3EDC-4604-AFCB-8C1B94FEFD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4236" yWindow="2244" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{F893E997-8251-44C5-9FC1-92383C03822B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F893E997-8251-44C5-9FC1-92383C03822B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>nhuyyy@gmail.com</t>
   </si>
@@ -49,13 +50,52 @@
   </si>
   <si>
     <t>Đá bóng vào cuối tuần</t>
+  </si>
+  <si>
+    <t>Da bong vao cuoi tuan</t>
+  </si>
+  <si>
+    <t>Da bong</t>
+  </si>
+  <si>
+    <t>mail hoặc password đã nhập sai</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Password không được để trống</t>
+  </si>
+  <si>
+    <t>Mail không được để trống</t>
+  </si>
+  <si>
+    <t>update thanh cong</t>
+  </si>
+  <si>
+    <t>Task de trong</t>
+  </si>
+  <si>
+    <t>Description de trong</t>
+  </si>
+  <si>
+    <t>Xem phim</t>
+  </si>
+  <si>
+    <t>Xem phim vào cuối tuần</t>
+  </si>
+  <si>
+    <t>description de trong</t>
+  </si>
+  <si>
+    <t>Update thanh cong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -75,16 +115,44 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -92,15 +160,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39D2F2-F80F-494B-8407-2C45F22731E6}">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -427,54 +556,70 @@
     <col min="1" max="16384" width="30.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1">
+        <v>1234</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C6" s="1">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="1">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{76059046-6809-4ED4-9CAB-EBF959530B69}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{B741B80F-91BB-4D0A-88BA-0D7CBAEAB6AF}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{B741B80F-91BB-4D0A-88BA-0D7CBAEAB6AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -483,44 +628,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35212CDE-5192-44B9-A16C-5A9E21EA79EB}">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="30.83203125" style="1"/>
+    <col min="1" max="2" width="30.83203125" style="1"/>
+    <col min="3" max="3" width="40.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="30.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBCE1F9-428F-4AD1-9C3F-20DC4A45ECE8}">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="30.83203125" style="3"/>
+    <col min="3" max="3" width="44.1640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="30.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="5:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="5:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="5:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="5:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
